--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tfpi-Vldlr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tfpi-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.08912488330708</v>
+        <v>5.573004</v>
       </c>
       <c r="H2">
-        <v>4.08912488330708</v>
+        <v>16.719012</v>
       </c>
       <c r="I2">
-        <v>0.1127945870717545</v>
+        <v>0.1383950099922425</v>
       </c>
       <c r="J2">
-        <v>0.1127945870717545</v>
+        <v>0.1494586813194652</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.190772211437936</v>
+        <v>0.196272</v>
       </c>
       <c r="N2">
-        <v>0.190772211437936</v>
+        <v>0.588816</v>
       </c>
       <c r="O2">
-        <v>0.02964800127054067</v>
+        <v>0.02813229386822481</v>
       </c>
       <c r="P2">
-        <v>0.02964800127054067</v>
+        <v>0.03089009369338271</v>
       </c>
       <c r="Q2">
-        <v>0.7800913968343836</v>
+        <v>1.093824641088</v>
       </c>
       <c r="R2">
-        <v>0.7800913968343836</v>
+        <v>9.844421769792</v>
       </c>
       <c r="S2">
-        <v>0.003344134060813486</v>
+        <v>0.003893369090997675</v>
       </c>
       <c r="T2">
-        <v>0.003344134060813486</v>
+        <v>0.004616792669247709</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.08912488330708</v>
+        <v>5.573004</v>
       </c>
       <c r="H3">
-        <v>4.08912488330708</v>
+        <v>16.719012</v>
       </c>
       <c r="I3">
-        <v>0.1127945870717545</v>
+        <v>0.1383950099922425</v>
       </c>
       <c r="J3">
-        <v>0.1127945870717545</v>
+        <v>0.1494586813194652</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.37941604908321</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N3">
-        <v>4.37941604908321</v>
+        <v>14.425447</v>
       </c>
       <c r="O3">
-        <v>0.6806071576608337</v>
+        <v>0.6892151609068061</v>
       </c>
       <c r="P3">
-        <v>0.6806071576608337</v>
+        <v>0.7567787040415452</v>
       </c>
       <c r="Q3">
-        <v>17.90797914066054</v>
+        <v>26.797691277596</v>
       </c>
       <c r="R3">
-        <v>17.90797914066054</v>
+        <v>241.179221498364</v>
       </c>
       <c r="S3">
-        <v>0.07676880330643421</v>
+        <v>0.09538393908050245</v>
       </c>
       <c r="T3">
-        <v>0.07676880330643421</v>
+        <v>0.1131071471567032</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.08912488330708</v>
+        <v>5.573004</v>
       </c>
       <c r="H4">
-        <v>4.08912488330708</v>
+        <v>16.719012</v>
       </c>
       <c r="I4">
-        <v>0.1127945870717545</v>
+        <v>0.1383950099922425</v>
       </c>
       <c r="J4">
-        <v>0.1127945870717545</v>
+        <v>0.1494586813194652</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.86438416468629</v>
+        <v>0.03080033333333333</v>
       </c>
       <c r="N4">
-        <v>1.86438416468629</v>
+        <v>0.092401</v>
       </c>
       <c r="O4">
-        <v>0.2897448410686257</v>
+        <v>0.004414710343669059</v>
       </c>
       <c r="P4">
-        <v>0.2897448410686257</v>
+        <v>0.004847482995302872</v>
       </c>
       <c r="Q4">
-        <v>7.623699679862393</v>
+        <v>0.171650380868</v>
       </c>
       <c r="R4">
-        <v>7.623699679862393</v>
+        <v>1.544853427812</v>
       </c>
       <c r="S4">
-        <v>0.03268164970450676</v>
+        <v>0.0006109738821249357</v>
       </c>
       <c r="T4">
-        <v>0.03268164970450676</v>
+        <v>0.0007244984161964987</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.7912552633253</v>
+        <v>5.573004</v>
       </c>
       <c r="H5">
-        <v>17.7912552633253</v>
+        <v>16.719012</v>
       </c>
       <c r="I5">
-        <v>0.4907547086925823</v>
+        <v>0.1383950099922425</v>
       </c>
       <c r="J5">
-        <v>0.4907547086925823</v>
+        <v>0.1494586813194652</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.190772211437936</v>
+        <v>0.072589</v>
       </c>
       <c r="N5">
-        <v>0.190772211437936</v>
+        <v>0.217767</v>
       </c>
       <c r="O5">
-        <v>0.02964800127054067</v>
+        <v>0.01040441366878908</v>
       </c>
       <c r="P5">
-        <v>0.02964800127054067</v>
+        <v>0.01142435503336674</v>
       </c>
       <c r="Q5">
-        <v>3.394077110841386</v>
+        <v>0.404538787356</v>
       </c>
       <c r="R5">
-        <v>3.394077110841386</v>
+        <v>3.640849086204</v>
       </c>
       <c r="S5">
-        <v>0.01454989622684149</v>
+        <v>0.001439918933655489</v>
       </c>
       <c r="T5">
-        <v>0.01454989622684149</v>
+        <v>0.001707469038212389</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.7912552633253</v>
+        <v>5.573004</v>
       </c>
       <c r="H6">
-        <v>17.7912552633253</v>
+        <v>16.719012</v>
       </c>
       <c r="I6">
-        <v>0.4907547086925823</v>
+        <v>0.1383950099922425</v>
       </c>
       <c r="J6">
-        <v>0.4907547086925823</v>
+        <v>0.1494586813194652</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.37941604908321</v>
+        <v>1.868607</v>
       </c>
       <c r="N6">
-        <v>4.37941604908321</v>
+        <v>3.737214</v>
       </c>
       <c r="O6">
-        <v>0.6806071576608337</v>
+        <v>0.267833421212511</v>
       </c>
       <c r="P6">
-        <v>0.6806071576608337</v>
+        <v>0.1960593642364025</v>
       </c>
       <c r="Q6">
-        <v>77.91530883354297</v>
+        <v>10.413754285428</v>
       </c>
       <c r="R6">
-        <v>77.91530883354297</v>
+        <v>62.48252571256799</v>
       </c>
       <c r="S6">
-        <v>0.3340111673919288</v>
+        <v>0.03706680900496195</v>
       </c>
       <c r="T6">
-        <v>0.3340111673919288</v>
+        <v>0.02930277403910544</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.7912552633253</v>
+        <v>19.39389166666666</v>
       </c>
       <c r="H7">
-        <v>17.7912552633253</v>
+        <v>58.181675</v>
       </c>
       <c r="I7">
-        <v>0.4907547086925823</v>
+        <v>0.4816106055184604</v>
       </c>
       <c r="J7">
-        <v>0.4907547086925823</v>
+        <v>0.520111859627692</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.86438416468629</v>
+        <v>0.196272</v>
       </c>
       <c r="N7">
-        <v>1.86438416468629</v>
+        <v>0.588816</v>
       </c>
       <c r="O7">
-        <v>0.2897448410686257</v>
+        <v>0.02813229386822481</v>
       </c>
       <c r="P7">
-        <v>0.2897448410686257</v>
+        <v>0.03089009369338271</v>
       </c>
       <c r="Q7">
-        <v>33.1697345828353</v>
+        <v>3.8064779052</v>
       </c>
       <c r="R7">
-        <v>33.1697345828353</v>
+        <v>34.2583011468</v>
       </c>
       <c r="S7">
-        <v>0.1421936450738119</v>
+        <v>0.01354881108449902</v>
       </c>
       <c r="T7">
-        <v>0.1421936450738119</v>
+        <v>0.01606630407493892</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.15313395572125</v>
+        <v>19.39389166666666</v>
       </c>
       <c r="H8">
-        <v>3.15313395572125</v>
+        <v>58.181675</v>
       </c>
       <c r="I8">
-        <v>0.08697617526170268</v>
+        <v>0.4816106055184604</v>
       </c>
       <c r="J8">
-        <v>0.08697617526170268</v>
+        <v>0.520111859627692</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.190772211437936</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N8">
-        <v>0.190772211437936</v>
+        <v>14.425447</v>
       </c>
       <c r="O8">
-        <v>0.02964800127054067</v>
+        <v>0.6892151609068061</v>
       </c>
       <c r="P8">
-        <v>0.02964800127054067</v>
+        <v>0.7567787040415452</v>
       </c>
       <c r="Q8">
-        <v>0.6015303376929898</v>
+        <v>93.2551854537472</v>
       </c>
       <c r="R8">
-        <v>0.6015303376929898</v>
+        <v>839.296669083725</v>
       </c>
       <c r="S8">
-        <v>0.002578669754665729</v>
+        <v>0.33193333097683</v>
       </c>
       <c r="T8">
-        <v>0.002578669754665729</v>
+        <v>0.3936095790856828</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.15313395572125</v>
+        <v>19.39389166666666</v>
       </c>
       <c r="H9">
-        <v>3.15313395572125</v>
+        <v>58.181675</v>
       </c>
       <c r="I9">
-        <v>0.08697617526170268</v>
+        <v>0.4816106055184604</v>
       </c>
       <c r="J9">
-        <v>0.08697617526170268</v>
+        <v>0.520111859627692</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>4.37941604908321</v>
+        <v>0.03080033333333333</v>
       </c>
       <c r="N9">
-        <v>4.37941604908321</v>
+        <v>0.092401</v>
       </c>
       <c r="O9">
-        <v>0.6806071576608337</v>
+        <v>0.004414710343669059</v>
       </c>
       <c r="P9">
-        <v>0.6806071576608337</v>
+        <v>0.004847482995302872</v>
       </c>
       <c r="Q9">
-        <v>13.80888545059487</v>
+        <v>0.5973383279638889</v>
       </c>
       <c r="R9">
-        <v>13.80888545059487</v>
+        <v>5.376044951675</v>
       </c>
       <c r="S9">
-        <v>0.05919660742907797</v>
+        <v>0.002126171321803066</v>
       </c>
       <c r="T9">
-        <v>0.05919660742907797</v>
+        <v>0.002521233395200591</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.15313395572125</v>
+        <v>19.39389166666666</v>
       </c>
       <c r="H10">
-        <v>3.15313395572125</v>
+        <v>58.181675</v>
       </c>
       <c r="I10">
-        <v>0.08697617526170268</v>
+        <v>0.4816106055184604</v>
       </c>
       <c r="J10">
-        <v>0.08697617526170268</v>
+        <v>0.520111859627692</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.86438416468629</v>
+        <v>0.072589</v>
       </c>
       <c r="N10">
-        <v>1.86438416468629</v>
+        <v>0.217767</v>
       </c>
       <c r="O10">
-        <v>0.2897448410686257</v>
+        <v>0.01040441366878908</v>
       </c>
       <c r="P10">
-        <v>0.2897448410686257</v>
+        <v>0.01142435503336674</v>
       </c>
       <c r="Q10">
-        <v>5.87865301618134</v>
+        <v>1.407783202191667</v>
       </c>
       <c r="R10">
-        <v>5.87865301618134</v>
+        <v>12.670048819725</v>
       </c>
       <c r="S10">
-        <v>0.02520089807795898</v>
+        <v>0.005010875967090056</v>
       </c>
       <c r="T10">
-        <v>0.02520089807795898</v>
+        <v>0.00594194254145136</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.53297225774572</v>
+        <v>19.39389166666666</v>
       </c>
       <c r="H11">
-        <v>2.53297225774572</v>
+        <v>58.181675</v>
       </c>
       <c r="I11">
-        <v>0.06986960976490737</v>
+        <v>0.4816106055184604</v>
       </c>
       <c r="J11">
-        <v>0.06986960976490737</v>
+        <v>0.520111859627692</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.190772211437936</v>
+        <v>1.868607</v>
       </c>
       <c r="N11">
-        <v>0.190772211437936</v>
+        <v>3.737214</v>
       </c>
       <c r="O11">
-        <v>0.02964800127054067</v>
+        <v>0.267833421212511</v>
       </c>
       <c r="P11">
-        <v>0.02964800127054067</v>
+        <v>0.1960593642364025</v>
       </c>
       <c r="Q11">
-        <v>0.4832207191210925</v>
+        <v>36.23956172557499</v>
       </c>
       <c r="R11">
-        <v>0.4832207191210925</v>
+        <v>217.43737035345</v>
       </c>
       <c r="S11">
-        <v>0.002071494279082154</v>
+        <v>0.1289914161682383</v>
       </c>
       <c r="T11">
-        <v>0.002071494279082154</v>
+        <v>0.1019728005304183</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.53297225774572</v>
+        <v>3.432072333333333</v>
       </c>
       <c r="H12">
-        <v>2.53297225774572</v>
+        <v>10.296217</v>
       </c>
       <c r="I12">
-        <v>0.06986960976490737</v>
+        <v>0.08522902277941405</v>
       </c>
       <c r="J12">
-        <v>0.06986960976490737</v>
+        <v>0.09204246132481156</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.37941604908321</v>
+        <v>0.196272</v>
       </c>
       <c r="N12">
-        <v>4.37941604908321</v>
+        <v>0.588816</v>
       </c>
       <c r="O12">
-        <v>0.6806071576608337</v>
+        <v>0.02813229386822481</v>
       </c>
       <c r="P12">
-        <v>0.6806071576608337</v>
+        <v>0.03089009369338271</v>
       </c>
       <c r="Q12">
-        <v>11.09293935745414</v>
+        <v>0.6736197010079998</v>
       </c>
       <c r="R12">
-        <v>11.09293935745414</v>
+        <v>6.062577309071999</v>
       </c>
       <c r="S12">
-        <v>0.04755375650896523</v>
+        <v>0.002397687914932103</v>
       </c>
       <c r="T12">
-        <v>0.04755375650896523</v>
+        <v>0.002843200254092983</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.53297225774572</v>
+        <v>3.432072333333333</v>
       </c>
       <c r="H13">
-        <v>2.53297225774572</v>
+        <v>10.296217</v>
       </c>
       <c r="I13">
-        <v>0.06986960976490737</v>
+        <v>0.08522902277941405</v>
       </c>
       <c r="J13">
-        <v>0.06986960976490737</v>
+        <v>0.09204246132481156</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.86438416468629</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N13">
-        <v>1.86438416468629</v>
+        <v>14.425447</v>
       </c>
       <c r="O13">
-        <v>0.2897448410686257</v>
+        <v>0.6892151609068061</v>
       </c>
       <c r="P13">
-        <v>0.2897448410686257</v>
+        <v>0.7567787040415452</v>
       </c>
       <c r="Q13">
-        <v>4.7224333669308</v>
+        <v>16.50305918155544</v>
       </c>
       <c r="R13">
-        <v>4.7224333669308</v>
+        <v>148.527532633999</v>
       </c>
       <c r="S13">
-        <v>0.02024435897685999</v>
+        <v>0.0587411346488437</v>
       </c>
       <c r="T13">
-        <v>0.02024435897685999</v>
+        <v>0.06965577459818494</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.686360425055129</v>
+        <v>3.432072333333333</v>
       </c>
       <c r="H14">
-        <v>8.686360425055129</v>
+        <v>10.296217</v>
       </c>
       <c r="I14">
-        <v>0.2396049192090534</v>
+        <v>0.08522902277941405</v>
       </c>
       <c r="J14">
-        <v>0.2396049192090534</v>
+        <v>0.09204246132481156</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.190772211437936</v>
+        <v>0.03080033333333333</v>
       </c>
       <c r="N14">
-        <v>0.190772211437936</v>
+        <v>0.092401</v>
       </c>
       <c r="O14">
-        <v>0.02964800127054067</v>
+        <v>0.004414710343669059</v>
       </c>
       <c r="P14">
-        <v>0.02964800127054067</v>
+        <v>0.004847482995302872</v>
       </c>
       <c r="Q14">
-        <v>1.657116187634737</v>
+        <v>0.1057089718907778</v>
       </c>
       <c r="R14">
-        <v>1.657116187634737</v>
+        <v>0.9513807470169998</v>
       </c>
       <c r="S14">
-        <v>0.007103806949137809</v>
+        <v>0.0003762614484450851</v>
       </c>
       <c r="T14">
-        <v>0.007103806949137809</v>
+        <v>0.0004461742661178463</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.686360425055129</v>
+        <v>3.432072333333333</v>
       </c>
       <c r="H15">
-        <v>8.686360425055129</v>
+        <v>10.296217</v>
       </c>
       <c r="I15">
-        <v>0.2396049192090534</v>
+        <v>0.08522902277941405</v>
       </c>
       <c r="J15">
-        <v>0.2396049192090534</v>
+        <v>0.09204246132481156</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>4.37941604908321</v>
+        <v>0.072589</v>
       </c>
       <c r="N15">
-        <v>4.37941604908321</v>
+        <v>0.217767</v>
       </c>
       <c r="O15">
-        <v>0.6806071576608337</v>
+        <v>0.01040441366878908</v>
       </c>
       <c r="P15">
-        <v>0.6806071576608337</v>
+        <v>0.01142435503336674</v>
       </c>
       <c r="Q15">
-        <v>38.04118625360769</v>
+        <v>0.2491306986043333</v>
       </c>
       <c r="R15">
-        <v>38.04118625360769</v>
+        <v>2.242176287438999</v>
       </c>
       <c r="S15">
-        <v>0.1630768230244275</v>
+        <v>0.0008867580095836716</v>
       </c>
       <c r="T15">
-        <v>0.1630768230244275</v>
+        <v>0.001051525756319575</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.686360425055129</v>
+        <v>3.432072333333333</v>
       </c>
       <c r="H16">
-        <v>8.686360425055129</v>
+        <v>10.296217</v>
       </c>
       <c r="I16">
-        <v>0.2396049192090534</v>
+        <v>0.08522902277941405</v>
       </c>
       <c r="J16">
-        <v>0.2396049192090534</v>
+        <v>0.09204246132481156</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.86438416468629</v>
+        <v>1.868607</v>
       </c>
       <c r="N16">
-        <v>1.86438416468629</v>
+        <v>3.737214</v>
       </c>
       <c r="O16">
-        <v>0.2897448410686257</v>
+        <v>0.267833421212511</v>
       </c>
       <c r="P16">
-        <v>0.2897448410686257</v>
+        <v>0.1960593642364025</v>
       </c>
       <c r="Q16">
-        <v>16.19471282523045</v>
+        <v>6.413194386572998</v>
       </c>
       <c r="R16">
-        <v>16.19471282523045</v>
+        <v>38.47916631943799</v>
       </c>
       <c r="S16">
-        <v>0.06942428923548807</v>
+        <v>0.02282718075760949</v>
       </c>
       <c r="T16">
-        <v>0.06942428923548807</v>
+        <v>0.01804578645009621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.927161333333333</v>
+      </c>
+      <c r="H17">
+        <v>8.781483999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.0726905134063375</v>
+      </c>
+      <c r="J17">
+        <v>0.07850158960756669</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.196272</v>
+      </c>
+      <c r="N17">
+        <v>0.588816</v>
+      </c>
+      <c r="O17">
+        <v>0.02813229386822481</v>
+      </c>
+      <c r="P17">
+        <v>0.03089009369338271</v>
+      </c>
+      <c r="Q17">
+        <v>0.5745198092159999</v>
+      </c>
+      <c r="R17">
+        <v>5.170678282943999</v>
+      </c>
+      <c r="S17">
+        <v>0.002044950884579222</v>
+      </c>
+      <c r="T17">
+        <v>0.002424921458057213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.927161333333333</v>
+      </c>
+      <c r="H18">
+        <v>8.781483999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.0726905134063375</v>
+      </c>
+      <c r="J18">
+        <v>0.07850158960756669</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.808482333333333</v>
+      </c>
+      <c r="N18">
+        <v>14.425447</v>
+      </c>
+      <c r="O18">
+        <v>0.6892151609068061</v>
+      </c>
+      <c r="P18">
+        <v>0.7567787040415452</v>
+      </c>
+      <c r="Q18">
+        <v>14.07520355814978</v>
+      </c>
+      <c r="R18">
+        <v>126.676832023348</v>
+      </c>
+      <c r="S18">
+        <v>0.05009940389374725</v>
+      </c>
+      <c r="T18">
+        <v>0.05940833124841555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.927161333333333</v>
+      </c>
+      <c r="H19">
+        <v>8.781483999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.0726905134063375</v>
+      </c>
+      <c r="J19">
+        <v>0.07850158960756669</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.03080033333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.092401</v>
+      </c>
+      <c r="O19">
+        <v>0.004414710343669059</v>
+      </c>
+      <c r="P19">
+        <v>0.004847482995302872</v>
+      </c>
+      <c r="Q19">
+        <v>0.09015754478711109</v>
+      </c>
+      <c r="R19">
+        <v>0.8114179030839999</v>
+      </c>
+      <c r="S19">
+        <v>0.0003209075614215726</v>
+      </c>
+      <c r="T19">
+        <v>0.0003805351207269242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.927161333333333</v>
+      </c>
+      <c r="H20">
+        <v>8.781483999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.0726905134063375</v>
+      </c>
+      <c r="J20">
+        <v>0.07850158960756669</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.072589</v>
+      </c>
+      <c r="N20">
+        <v>0.217767</v>
+      </c>
+      <c r="O20">
+        <v>0.01040441366878908</v>
+      </c>
+      <c r="P20">
+        <v>0.01142435503336674</v>
+      </c>
+      <c r="Q20">
+        <v>0.2124797140253333</v>
+      </c>
+      <c r="R20">
+        <v>1.912317426228</v>
+      </c>
+      <c r="S20">
+        <v>0.000756302171276194</v>
+      </c>
+      <c r="T20">
+        <v>0.0008968300303604949</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.927161333333333</v>
+      </c>
+      <c r="H21">
+        <v>8.781483999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.0726905134063375</v>
+      </c>
+      <c r="J21">
+        <v>0.07850158960756669</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.868607</v>
+      </c>
+      <c r="N21">
+        <v>3.737214</v>
+      </c>
+      <c r="O21">
+        <v>0.267833421212511</v>
+      </c>
+      <c r="P21">
+        <v>0.1960593642364025</v>
+      </c>
+      <c r="Q21">
+        <v>5.469714157595999</v>
+      </c>
+      <c r="R21">
+        <v>32.818284945576</v>
+      </c>
+      <c r="S21">
+        <v>0.01946894889531327</v>
+      </c>
+      <c r="T21">
+        <v>0.0153909717500065</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>8.9426925</v>
+      </c>
+      <c r="H22">
+        <v>17.885385</v>
+      </c>
+      <c r="I22">
+        <v>0.2220748483035455</v>
+      </c>
+      <c r="J22">
+        <v>0.1598854081204645</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.196272</v>
+      </c>
+      <c r="N22">
+        <v>0.588816</v>
+      </c>
+      <c r="O22">
+        <v>0.02813229386822481</v>
+      </c>
+      <c r="P22">
+        <v>0.03089009369338271</v>
+      </c>
+      <c r="Q22">
+        <v>1.75520014236</v>
+      </c>
+      <c r="R22">
+        <v>10.53120085416</v>
+      </c>
+      <c r="S22">
+        <v>0.006247474893216787</v>
+      </c>
+      <c r="T22">
+        <v>0.004938875237045882</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8.9426925</v>
+      </c>
+      <c r="H23">
+        <v>17.885385</v>
+      </c>
+      <c r="I23">
+        <v>0.2220748483035455</v>
+      </c>
+      <c r="J23">
+        <v>0.1598854081204645</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.808482333333333</v>
+      </c>
+      <c r="N23">
+        <v>14.425447</v>
+      </c>
+      <c r="O23">
+        <v>0.6892151609068061</v>
+      </c>
+      <c r="P23">
+        <v>0.7567787040415452</v>
+      </c>
+      <c r="Q23">
+        <v>43.0007788986825</v>
+      </c>
+      <c r="R23">
+        <v>258.004673392095</v>
+      </c>
+      <c r="S23">
+        <v>0.1530573523068826</v>
+      </c>
+      <c r="T23">
+        <v>0.1209978719525587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>8.9426925</v>
+      </c>
+      <c r="H24">
+        <v>17.885385</v>
+      </c>
+      <c r="I24">
+        <v>0.2220748483035455</v>
+      </c>
+      <c r="J24">
+        <v>0.1598854081204645</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.03080033333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.092401</v>
+      </c>
+      <c r="O24">
+        <v>0.004414710343669059</v>
+      </c>
+      <c r="P24">
+        <v>0.004847482995302872</v>
+      </c>
+      <c r="Q24">
+        <v>0.2754379098975</v>
+      </c>
+      <c r="R24">
+        <v>1.652627459385</v>
+      </c>
+      <c r="S24">
+        <v>0.0009803961298743993</v>
+      </c>
+      <c r="T24">
+        <v>0.0007750417970610115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.9426925</v>
+      </c>
+      <c r="H25">
+        <v>17.885385</v>
+      </c>
+      <c r="I25">
+        <v>0.2220748483035455</v>
+      </c>
+      <c r="J25">
+        <v>0.1598854081204645</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.072589</v>
+      </c>
+      <c r="N25">
+        <v>0.217767</v>
+      </c>
+      <c r="O25">
+        <v>0.01040441366878908</v>
+      </c>
+      <c r="P25">
+        <v>0.01142435503336674</v>
+      </c>
+      <c r="Q25">
+        <v>0.6491411058825</v>
+      </c>
+      <c r="R25">
+        <v>3.894846635295</v>
+      </c>
+      <c r="S25">
+        <v>0.00231055858718367</v>
+      </c>
+      <c r="T25">
+        <v>0.001826587667022925</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>8.9426925</v>
+      </c>
+      <c r="H26">
+        <v>17.885385</v>
+      </c>
+      <c r="I26">
+        <v>0.2220748483035455</v>
+      </c>
+      <c r="J26">
+        <v>0.1598854081204645</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.868607</v>
+      </c>
+      <c r="N26">
+        <v>3.737214</v>
+      </c>
+      <c r="O26">
+        <v>0.267833421212511</v>
+      </c>
+      <c r="P26">
+        <v>0.1960593642364025</v>
+      </c>
+      <c r="Q26">
+        <v>16.7103778043475</v>
+      </c>
+      <c r="R26">
+        <v>66.84151121738999</v>
+      </c>
+      <c r="S26">
+        <v>0.05947906638638797</v>
+      </c>
+      <c r="T26">
+        <v>0.03134703146677602</v>
       </c>
     </row>
   </sheetData>
